--- a/trunk/Tools/modelPrices-Y1Q8.xlsx
+++ b/trunk/Tools/modelPrices-Y1Q8.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
   <si>
     <t xml:space="preserve">company </t>
   </si>
@@ -40,6 +42,45 @@
   </si>
   <si>
     <t xml:space="preserve">sold out </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X1 in US </t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X3 in US </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X3 in Europe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X1 in Europe </t>
+  </si>
+  <si>
+    <t>sold out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sold out ? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sold out? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X3 in Brazil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X1 in Brazil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y3 in US </t>
+  </si>
+  <si>
+    <t>sold out ??</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
 </sst>
 </file>
@@ -177,11 +218,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="122959744"/>
-        <c:axId val="122433920"/>
+        <c:axId val="86582016"/>
+        <c:axId val="86583552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="122959744"/>
+        <c:axId val="86582016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -191,12 +232,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122433920"/>
+        <c:crossAx val="86583552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="122433920"/>
+        <c:axId val="86583552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -207,7 +248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122959744"/>
+        <c:crossAx val="86582016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -224,7 +265,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -303,11 +344,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="105631104"/>
-        <c:axId val="105629568"/>
+        <c:axId val="101722368"/>
+        <c:axId val="101724160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105631104"/>
+        <c:axId val="101722368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -317,12 +358,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105629568"/>
+        <c:crossAx val="101724160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105629568"/>
+        <c:axId val="101724160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -333,7 +374,745 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105631104"/>
+        <c:crossAx val="101722368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$4:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>280</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$4:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="120944128"/>
+        <c:axId val="120942592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="120944128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120942592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="120942592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="120944128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$K$4:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$L$4:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="82362368"/>
+        <c:axId val="82360576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="82362368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82360576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="82360576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82362368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$4:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4720</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$D$4:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="106373504"/>
+        <c:axId val="133503616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="106373504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="133503616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="133503616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="106373504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$K$4:$K$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5590</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$L$4:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="82170240"/>
+        <c:axId val="82168448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="82170240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82168448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="82168448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82170240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$37:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2160</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2770</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2840</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$D$37:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="103100416"/>
+        <c:axId val="103086336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="103100416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103086336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="103086336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="103100416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape" verticalDpi="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet5!$C$4,Sheet5!$C$6:$C$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3490</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4170</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet5!$D$4,Sheet5!$D$6:$D$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="85247488"/>
+        <c:axId val="47347584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="85247488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="47347584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="47347584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85247488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -359,16 +1138,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -394,20 +1173,215 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -715,10 +1689,13 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G10"/>
+      <selection activeCell="B3" sqref="B3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -814,7 +1791,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -822,8 +1800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,18 +1875,469 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>15450</v>
+      </c>
+      <c r="D4">
+        <v>85</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>10150</v>
+      </c>
+      <c r="L4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>280</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>2000</v>
+      </c>
+      <c r="L5">
+        <v>72</v>
+      </c>
+      <c r="M5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>8</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>2000</v>
+      </c>
+      <c r="D30">
+        <v>240</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>10240</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>5590</v>
+      </c>
+      <c r="L4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4720</v>
+      </c>
+      <c r="D5">
+        <v>96</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>1000</v>
+      </c>
+      <c r="L5">
+        <v>80</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>4910</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>2160</v>
+      </c>
+      <c r="D37">
+        <v>268</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>2770</v>
+      </c>
+      <c r="D38">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>2840</v>
+      </c>
+      <c r="D39">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>20000</v>
+      </c>
+      <c r="D4">
+        <v>245</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>3490</v>
+      </c>
+      <c r="D6">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>4170</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>15000</v>
+      </c>
+      <c r="D8">
+        <v>250</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/trunk/Tools/modelPrices-Y1Q8.xlsx
+++ b/trunk/Tools/modelPrices-Y1Q8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12075" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="24915" windowHeight="12015" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -218,11 +218,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="86582016"/>
-        <c:axId val="86583552"/>
+        <c:axId val="49293184"/>
+        <c:axId val="49294720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86582016"/>
+        <c:axId val="49293184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -232,12 +232,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86583552"/>
+        <c:crossAx val="49294720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86583552"/>
+        <c:axId val="49294720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -248,7 +248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86582016"/>
+        <c:crossAx val="49293184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -344,11 +344,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101722368"/>
-        <c:axId val="101724160"/>
+        <c:axId val="61951360"/>
+        <c:axId val="61957248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101722368"/>
+        <c:axId val="61951360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -358,12 +358,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101724160"/>
+        <c:crossAx val="61957248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101724160"/>
+        <c:axId val="61957248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -374,7 +374,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101722368"/>
+        <c:crossAx val="61951360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -426,30 +426,36 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$C$4:$C$5</c:f>
+              <c:f>Sheet3!$C$4:$C$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>15450</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$D$4:$D$5</c:f>
+              <c:f>Sheet3!$D$4:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -464,11 +470,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="120944128"/>
-        <c:axId val="120942592"/>
+        <c:axId val="85984384"/>
+        <c:axId val="85985920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="120944128"/>
+        <c:axId val="85984384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -478,12 +484,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120942592"/>
+        <c:crossAx val="85985920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="120942592"/>
+        <c:axId val="85985920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -494,7 +500,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120944128"/>
+        <c:crossAx val="85984384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -546,30 +552,36 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet3!$K$4:$K$5</c:f>
+              <c:f>Sheet3!$K$4:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>10150</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9590</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet3!$L$4:$L$5</c:f>
+              <c:f>Sheet3!$L$4:$L$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -584,11 +596,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82362368"/>
-        <c:axId val="82360576"/>
+        <c:axId val="86006016"/>
+        <c:axId val="86011904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82362368"/>
+        <c:axId val="86006016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,12 +610,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82360576"/>
+        <c:crossAx val="86011904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82360576"/>
+        <c:axId val="86011904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -614,7 +626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82362368"/>
+        <c:crossAx val="86006016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -666,30 +678,54 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet4!$C$4:$C$5</c:f>
+              <c:f>Sheet4!$C$4:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10240</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4720</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4910</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12770</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4420</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9020</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$D$4:$D$5</c:f>
+              <c:f>Sheet4!$D$4:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -704,11 +740,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="106373504"/>
-        <c:axId val="133503616"/>
+        <c:axId val="86066688"/>
+        <c:axId val="86068224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106373504"/>
+        <c:axId val="86066688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -718,12 +754,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133503616"/>
+        <c:crossAx val="86068224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133503616"/>
+        <c:axId val="86068224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -734,7 +770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106373504"/>
+        <c:crossAx val="86066688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -824,11 +860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82170240"/>
-        <c:axId val="82168448"/>
+        <c:axId val="86079744"/>
+        <c:axId val="86097920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82170240"/>
+        <c:axId val="86079744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,12 +874,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82168448"/>
+        <c:crossAx val="86097920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82168448"/>
+        <c:axId val="86097920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -854,7 +890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82170240"/>
+        <c:crossAx val="86079744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -950,11 +986,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="103100416"/>
-        <c:axId val="103086336"/>
+        <c:axId val="86382464"/>
+        <c:axId val="86384000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="103100416"/>
+        <c:axId val="86382464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -964,12 +1000,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103086336"/>
+        <c:crossAx val="86384000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="103086336"/>
+        <c:axId val="86384000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,7 +1016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103100416"/>
+        <c:crossAx val="86382464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1082,11 +1118,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="85247488"/>
-        <c:axId val="47347584"/>
+        <c:axId val="86412672"/>
+        <c:axId val="86439040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85247488"/>
+        <c:axId val="86412672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1096,12 +1132,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47347584"/>
+        <c:crossAx val="86439040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47347584"/>
+        <c:axId val="86439040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1148,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85247488"/>
+        <c:crossAx val="86412672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1210,14 +1246,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1238,16 +1274,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1274,15 +1310,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1303,16 +1339,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1885,7 +1921,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A4" sqref="A4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,6 +2025,32 @@
       </c>
       <c r="M5" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>10300</v>
+      </c>
+      <c r="D6">
+        <v>85</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>9590</v>
+      </c>
+      <c r="L6">
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2041,8 +2103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2154,6 +2216,48 @@
       </c>
       <c r="D6">
         <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>12770</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>4420</v>
+      </c>
+      <c r="D8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>9020</v>
+      </c>
+      <c r="D9">
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2234,7 +2338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
